--- a/Contas.xlsx
+++ b/Contas.xlsx
@@ -738,12 +738,32 @@
       <c r="K3" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="5" t="n"/>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>OK 1/11  20/08</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>550</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>OK 6/11  10/02/2032</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>OK 7/11  2</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="R3" s="5" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>

--- a/Contas.xlsx
+++ b/Contas.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,6 +65,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF9C0006"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <sz val="14"/>
       <scheme val="minor"/>
     </font>
@@ -137,7 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +161,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,15 +548,15 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="19.140625" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col width="19.140625" customWidth="1" style="2" min="1" max="1"/>
     <col width="28" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19.140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="19.140625" customWidth="1" style="1" min="4" max="16384"/>
+    <col width="19.140625" customWidth="1" style="1" min="3" max="4"/>
+    <col width="19.140625" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1"/>
@@ -764,8 +773,14 @@
           <t>22</t>
         </is>
       </c>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>OK 7/11  20/08</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>230</v>
+      </c>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
@@ -779,7 +794,11 @@
       <c r="A4" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B4" s="3" t="n"/>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C4" s="3" t="n">
         <v>8045</v>
       </c>
@@ -812,7 +831,11 @@
       <c r="A5" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="B5" s="3" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C5" s="3" t="n">
         <v>2678</v>
       </c>
@@ -845,7 +868,11 @@
       <c r="A6" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B6" s="3" t="n"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C6" s="3" t="n">
         <v>5349</v>
       </c>
@@ -878,7 +905,11 @@
       <c r="A7" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="B7" s="3" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C7" s="3" t="n">
         <v>5523</v>
       </c>
@@ -911,14 +942,30 @@
       <c r="A8" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="B8" s="3" t="n"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C8" s="3" t="n">
         <v>6607</v>
       </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>OK 7/11  27/08</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>202</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>OK 7/11  20/5</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>800</v>
+      </c>
       <c r="H8" s="3" t="n"/>
       <c r="I8" s="3" t="n"/>
       <c r="J8" s="3" t="n"/>
@@ -944,7 +991,11 @@
       <c r="A9" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="B9" s="3" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C9" s="3" t="n">
         <v>5547</v>
       </c>
@@ -977,7 +1028,11 @@
       <c r="A10" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B10" s="5" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C10" s="5" t="n">
         <v>4456</v>
       </c>
@@ -1010,7 +1065,11 @@
       <c r="A11" s="4" t="n">
         <v>372</v>
       </c>
-      <c r="B11" s="3" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C11" s="3" t="n">
         <v>1004</v>
       </c>
@@ -1043,7 +1102,11 @@
       <c r="A12" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B12" s="3" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C12" s="3" t="n">
         <v>5502</v>
       </c>
@@ -1076,7 +1139,11 @@
       <c r="A13" s="4" t="n">
         <v>372</v>
       </c>
-      <c r="B13" s="3" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C13" s="3" t="n">
         <v>2897</v>
       </c>
@@ -1109,7 +1176,11 @@
       <c r="A14" s="4" t="n">
         <v>372</v>
       </c>
-      <c r="B14" s="3" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C14" s="3" t="n">
         <v>5241</v>
       </c>
@@ -1142,7 +1213,11 @@
       <c r="A15" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B15" s="3" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C15" s="3" t="n">
         <v>5536</v>
       </c>
@@ -1175,7 +1250,11 @@
       <c r="A16" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B16" s="3" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome - Endereço </t>
+        </is>
+      </c>
       <c r="C16" s="3" t="n">
         <v>5271</v>
       </c>
